--- a/public/templates/catalog-import.xlsx
+++ b/public/templates/catalog-import.xlsx
@@ -397,47 +397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>category</v>
+        <v>Категория</v>
       </c>
       <c r="B1" t="str">
-        <v>category_slug</v>
+        <v>Подкатегория</v>
       </c>
       <c r="C1" t="str">
-        <v>category_intro</v>
+        <v>Наименование</v>
       </c>
       <c r="D1" t="str">
-        <v>category_image</v>
-      </c>
-      <c r="E1" t="str">
-        <v>subcategory</v>
-      </c>
-      <c r="F1" t="str">
-        <v>subcategory_slug</v>
-      </c>
-      <c r="G1" t="str">
-        <v>subcategory_intro</v>
-      </c>
-      <c r="H1" t="str">
-        <v>subcategory_range</v>
-      </c>
-      <c r="I1" t="str">
-        <v>item</v>
-      </c>
-      <c r="J1" t="str">
-        <v>item_slug</v>
-      </c>
-      <c r="K1" t="str">
-        <v>sku</v>
-      </c>
-      <c r="L1" t="str">
-        <v>desc</v>
+        <v>Описание</v>
       </c>
     </row>
     <row r="2">
@@ -445,37 +421,13 @@
         <v>Трубопроводная арматура</v>
       </c>
       <c r="B2" t="str">
-        <v>truboprovodnaya-armatura</v>
+        <v>Шаровые краны</v>
       </c>
       <c r="C2" t="str">
-        <v>Запорная и регулирующая арматура для инженерных сетей.</v>
+        <v>Кран шаровый стальной DN50</v>
       </c>
       <c r="D2" t="str">
-        <v>/img/products/armatura.webp</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Шаровые краны</v>
-      </c>
-      <c r="F2" t="str">
-        <v>sharovye-krany</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Краны для систем водоснабжения и отопления.</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Диаметры DN15 — DN200</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Кран шаровый стальной DN50</v>
-      </c>
-      <c r="J2" t="str">
-        <v>kran-sharovyi-dn50</v>
-      </c>
-      <c r="K2" t="str">
-        <v>KR-S-050</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Полнопроходной шаровый кран с фланцевым соединением, рабочее давление 16 бар.</v>
+        <v>Полнопроходной фланцевый кран, рабочее давление 16 бар.</v>
       </c>
     </row>
     <row r="3">
@@ -483,37 +435,13 @@
         <v>Трубопроводная арматура</v>
       </c>
       <c r="B3" t="str">
-        <v>truboprovodnaya-armatura</v>
+        <v>Шаровые краны</v>
       </c>
       <c r="C3" t="str">
-        <v>Запорная и регулирующая арматура для инженерных сетей.</v>
+        <v>Кран шаровый латунный DN25</v>
       </c>
       <c r="D3" t="str">
-        <v>/img/products/armatura.webp</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Шаровые краны</v>
-      </c>
-      <c r="F3" t="str">
-        <v>sharovye-krany</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Краны для систем водоснабжения и отопления.</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Диаметры DN15 — DN200</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Кран шаровый латунный DN25</v>
-      </c>
-      <c r="J3" t="str">
-        <v>kran-sharovyi-dn25</v>
-      </c>
-      <c r="K3" t="str">
-        <v>KR-L-025</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Компактный латунный шаровый кран с накидными гайками для разводки внутри зданий.</v>
+        <v>Латунный кран с накидными гайками для внутренних систем.</v>
       </c>
     </row>
     <row r="4">
@@ -521,42 +449,18 @@
         <v>Комплектующие для монтажа</v>
       </c>
       <c r="B4" t="str">
-        <v>komplektuyushchie-dlya-montazha</v>
+        <v>Муфты и соединители</v>
       </c>
       <c r="C4" t="str">
-        <v>Крепёж, фитинги и аксессуары для монтажа инженерных сетей.</v>
+        <v>Муфта компрессионная 63 мм</v>
       </c>
       <c r="D4" t="str">
-        <v>/img/products/montazh.webp</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Муфты и соединители</v>
-      </c>
-      <c r="F4" t="str">
-        <v>mufty-i-soediniteli</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Резьбовые и компрессионные муфты для стальных и ПНД труб.</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Диаметры 20 — 110 мм</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Муфта компрессионная 63 мм</v>
-      </c>
-      <c r="J4" t="str">
-        <v>mufta-kompressionnaya-63</v>
-      </c>
-      <c r="K4" t="str">
-        <v>MU-K-063</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Компрессионная муфта из ПП для соединения ПНД труб без использования сварки.</v>
+        <v>Компрессионная муфта из ПП для соединения ПНД труб без сварки.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>